--- a/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 9 (4, 32, 48, 44, 31)/NODE_11nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 9 (4, 32, 48, 44, 31)/NODE_11nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Iterations</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Success %</t>
+  </si>
+  <si>
+    <t>Label</t>
   </si>
   <si>
     <t>Control 26</t>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,10 +447,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -456,15 +462,18 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.3702852930327638</v>
+        <v>0.3702967762937955</v>
       </c>
       <c r="E2">
-        <v>0.3702852930327638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.3702967762937955</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -475,128 +484,155 @@
       <c r="E3">
         <v>0.1916681390346444</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.4017398731078812</v>
+        <v>0.4017428440661174</v>
       </c>
       <c r="E4">
-        <v>0.4017398731078812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.4017428440661174</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.2875744551011341</v>
+        <v>0.2875422608624412</v>
       </c>
       <c r="E5">
-        <v>0.2875744551011341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.2875422608624412</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6845380815514613</v>
+        <v>0.684537825908332</v>
       </c>
       <c r="E6">
-        <v>0.6845380815514613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.684537825908332</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3733189570034515</v>
+        <v>0.3733273479538537</v>
       </c>
       <c r="E7">
-        <v>0.6266810429965485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.6266726520461463</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.5739799696449803</v>
+        <v>0.5740043159402053</v>
       </c>
       <c r="E8">
-        <v>0.4260200303550197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.4259956840597947</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.5202442858388513</v>
+        <v>0.5202069637837331</v>
       </c>
       <c r="E9">
-        <v>0.4797557141611487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.4797930362162669</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3797701388053792</v>
+        <v>0.3797952983583848</v>
       </c>
       <c r="E10">
-        <v>0.6202298611946209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.6202047016416152</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2935875831116768</v>
+        <v>0.2935776902317846</v>
       </c>
       <c r="E11">
-        <v>0.7064124168883232</v>
+        <v>0.7064223097682154</v>
       </c>
       <c r="F11">
-        <v>0.7069505453109741</v>
+        <v>0.7069457769393921</v>
       </c>
       <c r="G11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -610,10 +646,13 @@
       <c r="E12">
         <v>0.3525450267873719</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -624,10 +663,13 @@
       <c r="E13">
         <v>0.1916681390346444</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -638,10 +680,13 @@
       <c r="E14">
         <v>0.3771636812607947</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -652,10 +697,13 @@
       <c r="E15">
         <v>0.2898619027067453</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -666,10 +714,13 @@
       <c r="E16">
         <v>0.6881948002432507</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -680,10 +731,13 @@
       <c r="E17">
         <v>0.6470860315393892</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -694,10 +748,13 @@
       <c r="E18">
         <v>0.4576515888027962</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -708,10 +765,13 @@
       <c r="E19">
         <v>0.4701003441894759</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -722,10 +782,13 @@
       <c r="E20">
         <v>0.6415254911827806</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -741,6 +804,9 @@
       </c>
       <c r="G21">
         <v>0.6</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
